--- a/InputExcelSheet/Input_parameterization_newstyle.xlsx
+++ b/InputExcelSheet/Input_parameterization_newstyle.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="74">
   <si>
     <t xml:space="preserve">Flag</t>
   </si>
@@ -378,64 +378,19 @@
     <t xml:space="preserve">Login-POST</t>
   </si>
   <si>
+    <t xml:space="preserve">No-Run</t>
+  </si>
+  <si>
     <t xml:space="preserve">Patient-POST</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Patient-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">GET</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Patient-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PUT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Patient-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Bahnschrift SemiLight"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DELETE</t>
-    </r>
+    <t xml:space="preserve">Patient-GET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient-PUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient-DELETE</t>
   </si>
 </sst>
 </file>
@@ -445,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -486,11 +441,6 @@
       <name val="Bahnschrift SemiLight"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Bahnschrift SemiLight"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -599,7 +549,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -706,10 +656,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -792,7 +738,7 @@
   <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1715,13 +1661,13 @@
     </row>
     <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>50</v>
@@ -1768,13 +1714,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>70</v>
+      <c r="C20" s="19" t="s">
+        <v>71</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>56</v>
@@ -1813,13 +1759,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>71</v>
+      <c r="C21" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>58</v>
@@ -1858,13 +1804,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>72</v>
+      <c r="C22" s="19" t="s">
+        <v>73</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>60</v>
